--- a/biology/Histoire de la zoologie et de la botanique/Gen-Iti_Koidzumi/Gen-Iti_Koidzumi.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Gen-Iti_Koidzumi/Gen-Iti_Koidzumi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gen-ichi Koidzumi (小泉 源一, Koizumi Gen'ichi?, 1883–1953) est un botaniste japonais, auteur de plusieurs articles et monographies sur la phytogéographie, notamment sur les roses et Prunoideae, (Rosaceae), érables (Aceraceae), mûriers (genre Morus), et bien d'autres plantes. Son nom est parfois translittéré comme Gen'ichi ou Gen-Iti[1]... ou Koizumi.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gen-ichi Koidzumi (小泉 源一, Koizumi Gen'ichi?, 1883–1953) est un botaniste japonais, auteur de plusieurs articles et monographies sur la phytogéographie, notamment sur les roses et Prunoideae, (Rosaceae), érables (Aceraceae), mûriers (genre Morus), et bien d'autres plantes. Son nom est parfois translittéré comme Gen'ichi ou Gen-Iti... ou Koizumi.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Plants of Jaluit Island (Pacific surveys report / U.S. Army, Corps of Engineers, Far East), 1956. 
 The Big Button Palm which produces the ivory nut ([Reports] - USGS, Pacific Geological Surveys), 1952.
